--- a/results/Results_PSO_PID_Test_1.xlsx
+++ b/results/Results_PSO_PID_Test_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,202 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SettlingTime</t>
+          <t>SettlingTime_z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Overshoot</t>
+          <t>SettlingTime_phi</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RiseTime</t>
+          <t>SettlingTime_theta</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SteadyError</t>
+          <t>SettlingTime_psi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ITSE</t>
+          <t>Overshoot_z</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IAE</t>
+          <t>Overshoot_phi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Overshoot_theta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overshoot_psi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_phi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_theta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RiseTime_psi</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_z</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_phi</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_theta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SteadyError_psi</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_z</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_phi</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_theta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ITSE_psi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_z</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_phi</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_theta</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IAE_psi</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_z</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_phi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_theta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_psi</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_z</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_z</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_z</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_phi</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_phi</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_phi</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_theta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_theta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_theta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Kp_psi</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Ki_psi</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Kd_psi</t>
         </is>
       </c>
     </row>
@@ -485,28 +650,121 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04329276837336268</v>
+        <v>0.0757219229030805</v>
       </c>
       <c r="C2" t="n">
-        <v>1.062124248496994</v>
+        <v>2.364729458917835</v>
       </c>
       <c r="D2" t="n">
-        <v>1.824139561599281</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7214428857715431</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007619396075728131</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07810942578366985</v>
+        <v>5.576742557298364</v>
       </c>
       <c r="H2" t="n">
-        <v>0.564418453052034</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1856519107266164</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5210420841683366</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>0.01007625228376954</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.05499289779721029</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5103688482588582</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1671860078618747</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9658852977959187</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.075102529244982</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06615195413932409</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.8788677217238203</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.500843994091171</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.03476853290905776</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.5420403238331746</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>9.994799724524803</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.02259865125187754</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.1148165504453909</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +772,121 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04291379363636348</v>
+        <v>0.03350463173298399</v>
       </c>
       <c r="C3" t="n">
-        <v>1.102204408817635</v>
+        <v>1.122244488977956</v>
       </c>
       <c r="D3" t="n">
-        <v>1.1766664093809</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7414829659318638</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01147902378245829</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08361307887691496</v>
+        <v>0.8739936080400135</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5983209828184063</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1868885768178453</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7615230460921842</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>0.01383070272452337</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.08719934743018103</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6178273587149392</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1874249107131488</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10.58691580222419</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9663578407706639</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.003671391138326067</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.316943086290773</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.04308007879656134</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.27497571172157</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.03745534247120293</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.070961819875945</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +894,121 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04282804613982055</v>
+        <v>0.07468764622333879</v>
       </c>
       <c r="C4" t="n">
-        <v>1.102204408817635</v>
+        <v>2.384769539078156</v>
       </c>
       <c r="D4" t="n">
-        <v>1.138070022493842</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7414829659318638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0119743296609991</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08391514474252573</v>
+        <v>5.046362655053072</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6012043228839862</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.186763954640873</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5410821643286573</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>0.003591920238976989</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.05315194650862869</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4692394431469879</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1690234632424978</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14.30252483218745</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9758623176459603</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.719152469566751</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.05564532785461129</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.7154456834753259</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.770937165906715</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.03548471668614746</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.6984199958798494</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +1016,121 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04279758432058197</v>
+        <v>0.03351431498733359</v>
       </c>
       <c r="C5" t="n">
-        <v>1.102204408817635</v>
+        <v>1.122244488977956</v>
       </c>
       <c r="D5" t="n">
-        <v>1.124362325012229</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7414829659318638</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01209723498719997</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08408676955298405</v>
+        <v>0.879470937627036</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6022018002804288</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.186787130290272</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7615230460921842</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>0.01371596856830632</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.08708903224384902</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6170694708658805</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1874417643084886</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.58145570729346</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9664868617811055</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.09753935263602084</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.416917643569744</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.723830593246396</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.603803973616516</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +1138,121 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04283756989218757</v>
+        <v>0.03350785602338138</v>
       </c>
       <c r="C6" t="n">
         <v>1.122244488977956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8840874618706307</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8749126687344067</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.7615230460921842</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.01372171730858968</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08704679091181756</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6169785673589735</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1874139231751656</v>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>0.01386911480642646</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.08720956831043981</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6180085980951164</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1874040280189458</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.59126884355425</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9663111375736445</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.241087721502208</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01025927234029991</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.06132916333748076</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.125204137486115</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.136309207425231</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01461603105980716</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
